--- a/Team-Data/2008-09/11-25-2008-09.xlsx
+++ b/Team-Data/2008-09/11-25-2008-09.xlsx
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
@@ -847,7 +847,7 @@
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -856,13 +856,13 @@
         <v>9</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>15</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>10</v>
@@ -871,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
@@ -880,10 +880,10 @@
         <v>12</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>15</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.857</v>
+        <v>0.867</v>
       </c>
       <c r="H3" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.342</v>
       </c>
       <c r="O3" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="R3" t="n">
         <v>10.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
         <v>16.9</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.7</v>
+        <v>97.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -1017,13 +1017,13 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -1032,19 +1032,19 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
@@ -1181,7 +1181,7 @@
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
@@ -1211,16 +1211,16 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1229,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.467</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>85.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="T5" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U5" t="n">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="W5" t="n">
         <v>8.9</v>
@@ -1342,58 +1342,58 @@
         <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>3</v>
@@ -1402,37 +1402,37 @@
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.769</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="J6" t="n">
-        <v>77.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P6" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.792</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1554,61 +1554,61 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>4</v>
       </c>
       <c r="AP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>8</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>6</v>
-      </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT6" t="n">
         <v>20</v>
       </c>
       <c r="AU6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW6" t="n">
         <v>15</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>16</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1724,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>16</v>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1760,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1781,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1903,7 +1903,7 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1918,7 +1918,7 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1930,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN8" t="n">
         <v>25</v>
@@ -1948,13 +1948,13 @@
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>23</v>
@@ -1963,13 +1963,13 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1978,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
@@ -2115,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2139,16 +2139,16 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
         <v>25</v>
       </c>
       <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
         <v>13</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>12</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2160,7 +2160,7 @@
         <v>21</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>18</v>
@@ -2294,7 +2294,7 @@
         <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2312,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
@@ -2449,10 +2449,10 @@
         <v>3.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
         <v>5</v>
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
@@ -2497,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU11" t="n">
         <v>26</v>
@@ -2518,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>25</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2652,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
@@ -2661,13 +2661,13 @@
         <v>7</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
         <v>12</v>
@@ -2679,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2813,7 +2813,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2828,7 +2828,7 @@
         <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2840,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
@@ -2917,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
         <v>11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.909</v>
+        <v>0.917</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>87.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>17.7</v>
+        <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.379</v>
+        <v>0.395</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.754</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
       <c r="U14" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="X14" t="n">
         <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>105.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -3013,40 +3013,40 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL14" t="n">
         <v>10</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>11</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>8</v>
       </c>
-      <c r="AP14" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS14" t="n">
         <v>3</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
         <v>12</v>
@@ -3055,16 +3055,16 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>10</v>
@@ -3222,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>13</v>
@@ -3359,7 +3359,7 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3374,13 +3374,13 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>6</v>
@@ -3389,13 +3389,13 @@
         <v>4</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>27</v>
@@ -3410,7 +3410,7 @@
         <v>25</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>1</v>
@@ -3419,22 +3419,22 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>9</v>
       </c>
-      <c r="AY16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>8</v>
-      </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.438</v>
       </c>
       <c r="H17" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="L17" t="n">
         <v>5.1</v>
@@ -3493,34 +3493,34 @@
         <v>14.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R17" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S17" t="n">
-        <v>31.9</v>
+        <v>31.1</v>
       </c>
       <c r="T17" t="n">
-        <v>45.6</v>
+        <v>44.8</v>
       </c>
       <c r="U17" t="n">
         <v>20.3</v>
       </c>
       <c r="V17" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.4</v>
@@ -3529,34 +3529,34 @@
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
       </c>
       <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
         <v>21</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
@@ -3571,37 +3571,37 @@
         <v>27</v>
       </c>
       <c r="AN17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU17" t="n">
         <v>15</v>
       </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>16</v>
-      </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW17" t="n">
         <v>26</v>
       </c>
       <c r="AX17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3616,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,13 +3723,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3741,7 +3741,7 @@
         <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3768,7 +3768,7 @@
         <v>15</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
         <v>18</v>
@@ -3777,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3789,10 +3789,10 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
@@ -3905,13 +3905,13 @@
         <v>-3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3923,7 +3923,7 @@
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>14</v>
@@ -3935,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3950,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT19" t="n">
         <v>17</v>
@@ -3980,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4096,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4117,10 +4117,10 @@
         <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4141,7 +4141,7 @@
         <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>7</v>
@@ -4150,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
         <v>10</v>
@@ -4275,7 +4275,7 @@
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
@@ -4308,13 +4308,13 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4332,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
         <v>5</v>
@@ -4451,7 +4451,7 @@
         <v>-12.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4490,13 +4490,13 @@
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>10</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT22" t="n">
         <v>7</v>
@@ -4633,10 +4633,10 @@
         <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4681,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4699,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>5</v>
@@ -4815,7 +4815,7 @@
         <v>2.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
@@ -4833,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -4845,7 +4845,7 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -4869,13 +4869,13 @@
         <v>20</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>26</v>
@@ -4997,7 +4997,7 @@
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>6</v>
@@ -5012,7 +5012,7 @@
         <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -5027,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -5042,7 +5042,7 @@
         <v>29</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT25" t="n">
         <v>22</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.643</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="N26" t="n">
         <v>0.418</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
@@ -5161,46 +5161,46 @@
         <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5212,19 +5212,19 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP26" t="n">
         <v>23</v>
       </c>
-      <c r="AP26" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>23</v>
@@ -5239,22 +5239,22 @@
         <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC26" t="n">
         <v>10</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5388,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5400,7 +5400,7 @@
         <v>28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5549,7 +5549,7 @@
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -5603,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY28" t="n">
         <v>6</v>
@@ -5728,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>16</v>
@@ -5740,10 +5740,10 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
         <v>8</v>
@@ -5752,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
@@ -5797,7 +5797,7 @@
         <v>6</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
         <v>21</v>
@@ -5907,16 +5907,16 @@
         <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
@@ -5943,7 +5943,7 @@
         <v>18</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
@@ -5982,7 +5982,7 @@
         <v>15</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -6089,7 +6089,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6125,7 +6125,7 @@
         <v>14</v>
       </c>
       <c r="AP31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6140,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>

--- a/Team-Data/2008-09/11-25-2008-09.xlsx
+++ b/Team-Data/2008-09/11-25-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -753,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
@@ -765,7 +832,7 @@
         <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
@@ -780,13 +847,13 @@
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS2" t="n">
         <v>21</v>
@@ -795,28 +862,28 @@
         <v>15</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
         <v>19</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.857</v>
+        <v>0.867</v>
       </c>
       <c r="H3" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.342</v>
       </c>
       <c r="O3" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="R3" t="n">
         <v>10.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
         <v>16.9</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.7</v>
+        <v>97.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,13 +1017,13 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -965,19 +1032,19 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
@@ -1144,16 +1211,16 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,13 +1229,13 @@
         <v>29</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.467</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>85.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="T5" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U5" t="n">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="W5" t="n">
         <v>8.9</v>
@@ -1275,58 +1342,58 @@
         <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>3</v>
@@ -1335,34 +1402,34 @@
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -1397,88 +1464,88 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.846</v>
+        <v>0.769</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.8</v>
+        <v>36.4</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>76.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.482</v>
+        <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>19.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>20.9</v>
+        <v>21.8</v>
       </c>
       <c r="P6" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.3</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.8</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1487,64 +1554,64 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU6" t="n">
         <v>18</v>
       </c>
-      <c r="AU6" t="n">
-        <v>12</v>
-      </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA6" t="n">
         <v>9</v>
       </c>
-      <c r="BA6" t="n">
-        <v>14</v>
-      </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -1576,94 +1643,94 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.437</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
         <v>18.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="O7" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P7" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q7" t="n">
         <v>0.79</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="T7" t="n">
-        <v>47.3</v>
+        <v>47.6</v>
       </c>
       <c r="U7" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.8</v>
+        <v>98</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
         <v>9</v>
@@ -1675,22 +1742,22 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>6</v>
@@ -1705,16 +1772,16 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1723,13 +1790,13 @@
         <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
@@ -1863,10 +1930,10 @@
         <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
@@ -1887,7 +1954,7 @@
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>23</v>
@@ -1896,22 +1963,22 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -2027,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
@@ -2039,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2048,19 +2115,19 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
         <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>18</v>
@@ -2069,31 +2136,31 @@
         <v>16</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -2122,91 +2189,91 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.357</v>
+        <v>0.385</v>
       </c>
       <c r="H10" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I10" t="n">
         <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M10" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N10" t="n">
         <v>0.304</v>
       </c>
       <c r="O10" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="P10" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14</v>
+      </c>
+      <c r="S10" t="n">
         <v>29.9</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="R10" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="S10" t="n">
-        <v>29.7</v>
-      </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="V10" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2218,22 +2285,22 @@
         <v>4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2245,16 +2312,16 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>10</v>
@@ -2263,19 +2330,19 @@
         <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>3.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
         <v>5</v>
@@ -2394,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -2409,13 +2476,13 @@
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,19 +2491,19 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU11" t="n">
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW11" t="n">
         <v>23</v>
@@ -2445,19 +2512,19 @@
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
         <v>1</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>25</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -2486,91 +2553,91 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.385</v>
+        <v>0.417</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M12" t="n">
         <v>19.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="S12" t="n">
         <v>33.8</v>
       </c>
       <c r="T12" t="n">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="U12" t="n">
         <v>22</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
         <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
@@ -2579,49 +2646,49 @@
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
         <v>12</v>
       </c>
       <c r="AR12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2633,13 +2700,13 @@
         <v>23</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2755,16 +2822,16 @@
         <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2773,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
@@ -2788,22 +2855,22 @@
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="n">
         <v>21</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2815,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -2865,70 +2932,70 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>87.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.38</v>
+        <v>0.395</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>26.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.743</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="U14" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="X14" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>105.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2946,31 +3013,31 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>11</v>
       </c>
-      <c r="AM14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN14" t="n">
+      <c r="AP14" t="n">
         <v>8</v>
       </c>
-      <c r="AO14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
@@ -2979,25 +3046,25 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3146,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>10</v>
@@ -3155,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>13</v>
@@ -3170,16 +3237,16 @@
         <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -3292,28 +3359,28 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>6</v>
@@ -3325,10 +3392,10 @@
         <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>27</v>
@@ -3337,37 +3404,37 @@
         <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.438</v>
       </c>
       <c r="H17" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="L17" t="n">
         <v>5.1</v>
@@ -3426,34 +3493,34 @@
         <v>14.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R17" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S17" t="n">
-        <v>31.9</v>
+        <v>31.1</v>
       </c>
       <c r="T17" t="n">
-        <v>45.6</v>
+        <v>44.8</v>
       </c>
       <c r="U17" t="n">
         <v>20.3</v>
       </c>
       <c r="V17" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.4</v>
@@ -3462,37 +3529,37 @@
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>27</v>
@@ -3504,28 +3571,28 @@
         <v>27</v>
       </c>
       <c r="AN17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS17" t="n">
         <v>13</v>
       </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
         <v>26</v>
@@ -3534,7 +3601,7 @@
         <v>26</v>
       </c>
       <c r="AX17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3546,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3671,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>27</v>
@@ -3689,49 +3756,49 @@
         <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -3760,145 +3827,145 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>35.2</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>80.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.446</v>
       </c>
       <c r="L19" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M19" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="N19" t="n">
-        <v>0.369</v>
+        <v>0.386</v>
       </c>
       <c r="O19" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="P19" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.769</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U19" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="V19" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="AA19" t="n">
         <v>21.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
         <v>14</v>
       </c>
-      <c r="AK19" t="n">
-        <v>20</v>
-      </c>
       <c r="AL19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="n">
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
         <v>22</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU19" t="n">
         <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
         <v>16</v>
@@ -3907,13 +3974,13 @@
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>4.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -4029,13 +4096,13 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4044,16 +4111,16 @@
         <v>5</v>
       </c>
       <c r="AL20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM20" t="n">
         <v>10</v>
       </c>
-      <c r="AM20" t="n">
-        <v>11</v>
-      </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4074,10 +4141,10 @@
         <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4086,13 +4153,13 @@
         <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -4124,94 +4191,94 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.538</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O21" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P21" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R21" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T21" t="n">
         <v>42.2</v>
       </c>
       <c r="U21" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="X21" t="n">
         <v>1.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.9</v>
+        <v>105.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
@@ -4241,13 +4308,13 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4256,16 +4323,16 @@
         <v>3</v>
       </c>
       <c r="AV21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
         <v>5</v>
@@ -4277,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.067</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J22" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.412</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>0.376</v>
+        <v>0.365</v>
       </c>
       <c r="O22" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P22" t="n">
         <v>23.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.77</v>
+        <v>0.762</v>
       </c>
       <c r="R22" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S22" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>17.7</v>
+        <v>17</v>
       </c>
       <c r="V22" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="X22" t="n">
         <v>4.1</v>
@@ -4372,22 +4439,22 @@
         <v>6.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>90.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>-11.5</v>
+        <v>-12.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
         <v>30</v>
@@ -4414,34 +4481,34 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
         <v>24</v>
@@ -4450,10 +4517,10 @@
         <v>27</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4602,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,7 +4678,7 @@
         <v>22</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
@@ -4620,7 +4687,7 @@
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>17</v>
@@ -4632,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>5</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -4748,28 +4815,28 @@
         <v>2.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>28</v>
@@ -4778,13 +4845,13 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
         <v>24</v>
@@ -4796,22 +4863,22 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4820,7 +4887,7 @@
         <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -4852,55 +4919,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.667</v>
+        <v>0.643</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J25" t="n">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.499</v>
+        <v>0.497</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
-        <v>19.7</v>
+        <v>20.2</v>
       </c>
       <c r="P25" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q25" t="n">
         <v>0.739</v>
       </c>
       <c r="R25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="U25" t="n">
         <v>20.4</v>
@@ -4912,40 +4979,40 @@
         <v>5.9</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC25" t="n">
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
         <v>5</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -4954,19 +5021,19 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="n">
         <v>25</v>
@@ -4978,10 +5045,10 @@
         <v>11</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4990,22 +5057,22 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA25" t="n">
         <v>7</v>
       </c>
-      <c r="BA25" t="n">
-        <v>10</v>
-      </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.643</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="N26" t="n">
         <v>0.418</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
@@ -5094,70 +5161,70 @@
         <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP26" t="n">
         <v>23</v>
       </c>
-      <c r="AP26" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>23</v>
@@ -5169,25 +5236,25 @@
         <v>4</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB26" t="n">
         <v>17</v>
       </c>
-      <c r="BA26" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>9</v>
-      </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -5321,10 +5388,10 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>27</v>
@@ -5357,16 +5424,16 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>0.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -5491,19 +5558,19 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5527,16 +5594,16 @@
         <v>27</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-2</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
         <v>19</v>
@@ -5673,19 +5740,19 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
@@ -5694,7 +5761,7 @@
         <v>5</v>
       </c>
       <c r="AP29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>4</v>
@@ -5730,10 +5797,10 @@
         <v>6</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -5840,28 +5907,28 @@
         <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5873,37 +5940,37 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP30" t="n">
         <v>17</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>16</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>19</v>
@@ -5912,10 +5979,10 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
@@ -5944,157 +6011,157 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.167</v>
+        <v>0.091</v>
       </c>
       <c r="H31" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.7</v>
+        <v>35.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.90000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.435</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.291</v>
+        <v>0.282</v>
       </c>
       <c r="O31" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="P31" t="n">
-        <v>25.4</v>
+        <v>26.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>10.6</v>
       </c>
       <c r="S31" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="T31" t="n">
-        <v>40.3</v>
+        <v>39</v>
       </c>
       <c r="U31" t="n">
-        <v>18.9</v>
+        <v>18.2</v>
       </c>
       <c r="V31" t="n">
         <v>13.5</v>
       </c>
       <c r="W31" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
       </c>
       <c r="AI31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>12</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>11</v>
-      </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP31" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT31" t="n">
         <v>25</v>
       </c>
-      <c r="AT31" t="n">
-        <v>22</v>
-      </c>
       <c r="AU31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB31" t="n">
         <v>24</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-25-2008-09</t>
+          <t>2008-11-25</t>
         </is>
       </c>
     </row>
